--- a/MISO/Constraint Analyses/Top Congestion Reports/Jun-25_RT.xlsx
+++ b/MISO/Constraint Analyses/Top Congestion Reports/Jun-25_RT.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://roscommonanalytics-my.sharepoint.com/personal/lgraham_roscommonanalytics_com/Documents/Documents/Obsidian_Vault/MISO/Constraint Analyses/Top Congestion Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="8_{8D4D4F5D-F202-4790-A175-4C3F7F005F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55D33AEF-DDA3-4430-AE3B-E405E65C1092}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{8D4D4F5D-F202-4790-A175-4C3F7F005F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67E76190-05BE-4C78-88E7-0A1E58AA29A3}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{A9251352-77A6-4360-B6B8-E00AC4013FB8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" activeTab="1" xr2:uid="{A9251352-77A6-4360-B6B8-E00AC4013FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun-25 RT Pk" sheetId="1" r:id="rId1"/>
     <sheet name="Jun-25 RT Off" sheetId="2" r:id="rId2"/>
-    <sheet name="Merged" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="127">
   <si>
     <t>cid</t>
   </si>
@@ -353,9 +352,6 @@
   </si>
   <si>
     <t>Burr Oak-Leesburg, Reynolds-Greentown 345 kV outages, Reynolds No. 3 XFMR 765/345 kV outages. Solar push (Cavalry Solar Hybrid, Twin Lakes Solar).</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>Cornell-Febrantz 138 kV, Granville-Rangeline 138 kV outages.</t>
@@ -479,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -489,9 +485,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,7 +821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152C2F6B-8E84-450F-9C2F-DC6E2F9D222B}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -1036,7 +1029,7 @@
         <v>25</v>
       </c>
       <c r="O4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1083,7 +1076,7 @@
         <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1130,7 +1123,7 @@
         <v>31</v>
       </c>
       <c r="O6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1224,7 +1217,7 @@
         <v>37</v>
       </c>
       <c r="O8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1271,7 +1264,7 @@
         <v>40</v>
       </c>
       <c r="O9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1318,7 +1311,7 @@
         <v>43</v>
       </c>
       <c r="O10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1365,7 +1358,7 @@
         <v>46</v>
       </c>
       <c r="O11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1412,7 +1405,7 @@
         <v>49</v>
       </c>
       <c r="O12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1503,7 +1496,7 @@
         <v>54</v>
       </c>
       <c r="O14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1550,7 +1543,7 @@
         <v>57</v>
       </c>
       <c r="O15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1597,7 +1590,7 @@
         <v>60</v>
       </c>
       <c r="O16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1644,7 +1637,7 @@
         <v>63</v>
       </c>
       <c r="O17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1735,7 +1728,7 @@
         <v>69</v>
       </c>
       <c r="O19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1782,7 +1775,7 @@
         <v>72</v>
       </c>
       <c r="O20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1829,7 +1822,7 @@
         <v>74</v>
       </c>
       <c r="O21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1841,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1F91E2-0F16-4124-B448-46FADD09D0F9}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,7 +1947,7 @@
         <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2001,7 +1994,7 @@
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2048,7 +2041,7 @@
         <v>49</v>
       </c>
       <c r="O4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -2095,7 +2088,7 @@
         <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -2142,7 +2135,7 @@
         <v>74</v>
       </c>
       <c r="O6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -2189,7 +2182,7 @@
         <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2236,7 +2229,7 @@
         <v>46</v>
       </c>
       <c r="O8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2283,7 +2276,7 @@
         <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -2330,7 +2323,7 @@
         <v>86</v>
       </c>
       <c r="O10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -2556,7 +2549,7 @@
         <v>66</v>
       </c>
       <c r="O15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2647,7 +2640,7 @@
         <v>95</v>
       </c>
       <c r="O17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -2738,7 +2731,7 @@
         <v>101</v>
       </c>
       <c r="O19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -2785,7 +2778,7 @@
         <v>54</v>
       </c>
       <c r="O20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2832,264 +2825,10 @@
         <v>43</v>
       </c>
       <c r="O21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67CD401-2F08-46AE-899D-8F904A518463}">
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="61" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A29">
-    <sortCondition ref="A1:A29"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>